--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43115,6 +43115,41 @@
         <v>129100</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.675</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>60100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43150,6 +43150,41 @@
         <v>60100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>57800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43185,6 +43185,41 @@
         <v>57800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>86600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43220,6 +43220,41 @@
         <v>86600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>65500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43255,6 +43255,41 @@
         <v>65500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>16000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43290,6 +43290,41 @@
         <v>16000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>8300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>8300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,41 @@
         <v>6900</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43430,6 +43430,41 @@
         <v>2900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>86100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43465,6 +43465,41 @@
         <v>86100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43500,6 +43500,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43535,6 +43535,76 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>58000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43605,6 +43605,78 @@
         <v>58000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>61400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,43 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43714,6 +43714,41 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>17100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>17100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>45800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43819,6 +43819,76 @@
         <v>45800</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>49900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43889,6 +43889,43 @@
         <v>49900</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="I1240" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         </is>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>30200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1992"/>
+  <dimension ref="A1:I1993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70246,6 +70246,41 @@
         <v>30200</v>
       </c>
     </row>
+    <row r="1993">
+      <c r="A1993" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1993" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1993" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1993" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1993" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F1993" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G1993" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H1993" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1993" t="n">
+        <v>107500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1993"/>
+  <dimension ref="A1:I1994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70281,6 +70281,41 @@
         <v>107500</v>
       </c>
     </row>
+    <row r="1994">
+      <c r="A1994" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1994" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1994" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1994" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1994" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1994" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1994" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1994" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1994" t="n">
+        <v>96000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1994"/>
+  <dimension ref="A1:I1995"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70316,6 +70316,41 @@
         <v>96000</v>
       </c>
     </row>
+    <row r="1995">
+      <c r="A1995" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1995" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1995" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1995" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1995" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F1995" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1995" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I1995" t="n">
+        <v>29000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1995"/>
+  <dimension ref="A1:I1996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70351,6 +70351,41 @@
         <v>29000</v>
       </c>
     </row>
+    <row r="1996">
+      <c r="A1996" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1996" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1996" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1996" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1996" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F1996" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="G1996" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1996" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1996" t="n">
+        <v>78000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1996"/>
+  <dimension ref="A1:I1997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70386,6 +70386,41 @@
         <v>78000</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1997" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1997" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1997" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1997" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1997" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>174000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1997"/>
+  <dimension ref="A1:I1998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70421,6 +70421,41 @@
         <v>174000</v>
       </c>
     </row>
+    <row r="1998">
+      <c r="A1998" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1998" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1998" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1998" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1998" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1998" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>35000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1998"/>
+  <dimension ref="A1:I1999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70456,6 +70456,41 @@
         <v>35000</v>
       </c>
     </row>
+    <row r="1999">
+      <c r="A1999" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1999" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1999" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D1999" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E1999" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1999" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>140600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1999"/>
+  <dimension ref="A1:I2000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70491,6 +70491,41 @@
         <v>140600</v>
       </c>
     </row>
+    <row r="2000">
+      <c r="A2000" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2000" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2000" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2000" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2000" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2000" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>331300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2000"/>
+  <dimension ref="A1:I2001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70526,6 +70526,41 @@
         <v>331300</v>
       </c>
     </row>
+    <row r="2001">
+      <c r="A2001" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2001" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2001" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2001" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2001" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G2001" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>424300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2001"/>
+  <dimension ref="A1:I2002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70561,6 +70561,41 @@
         <v>424300</v>
       </c>
     </row>
+    <row r="2002">
+      <c r="A2002" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2002" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2002" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2002" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2002" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2002" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>131600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2002"/>
+  <dimension ref="A1:I2003"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70596,6 +70596,41 @@
         <v>131600</v>
       </c>
     </row>
+    <row r="2003">
+      <c r="A2003" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2003" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2003" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2003" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2003" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G2003" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>116800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2003"/>
+  <dimension ref="A1:I2004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70631,6 +70631,41 @@
         <v>116800</v>
       </c>
     </row>
+    <row r="2004">
+      <c r="A2004" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2004" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2004" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2004" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2004" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2004" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>74900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2004"/>
+  <dimension ref="A1:I2005"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70666,6 +70666,41 @@
         <v>74900</v>
       </c>
     </row>
+    <row r="2005">
+      <c r="A2005" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2005" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2005" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2005" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2005" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G2005" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>70200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2005"/>
+  <dimension ref="A1:I2006"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70701,6 +70701,41 @@
         <v>70200</v>
       </c>
     </row>
+    <row r="2006">
+      <c r="A2006" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2006" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2006" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2006" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2006" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G2006" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>11200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2006"/>
+  <dimension ref="A1:I2007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70736,6 +70736,41 @@
         <v>11200</v>
       </c>
     </row>
+    <row r="2007">
+      <c r="A2007" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2007" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2007" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2007" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2007" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2007" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>49800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2650"/>
+  <dimension ref="A1:I2651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93276,6 +93276,41 @@
         <v>49800</v>
       </c>
     </row>
+    <row r="2651">
+      <c r="A2651" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2651" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2651" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2651" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F2651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G2651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H2651" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I2651" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2651"/>
+  <dimension ref="A1:I2652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93311,6 +93311,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2652">
+      <c r="A2652" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2652" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2652" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2652" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2652" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2652" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G2652" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2652" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2652" t="n">
+        <v>104500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2652"/>
+  <dimension ref="A1:I2653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93346,6 +93346,41 @@
         <v>104500</v>
       </c>
     </row>
+    <row r="2653">
+      <c r="A2653" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2653" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2653" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2653" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2653" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2653" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2653" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2653" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2653" t="n">
+        <v>163500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2653"/>
+  <dimension ref="A1:I2654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93381,6 +93381,41 @@
         <v>163500</v>
       </c>
     </row>
+    <row r="2654">
+      <c r="A2654" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2654" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2654" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2654" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2654" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2654" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2654" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2654" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2654" t="n">
+        <v>26300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2654"/>
+  <dimension ref="A1:I2655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93416,6 +93416,41 @@
         <v>26300</v>
       </c>
     </row>
+    <row r="2655">
+      <c r="A2655" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2655" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2655" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2655" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2655" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2655" t="n">
+        <v>8500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2655"/>
+  <dimension ref="A1:I2656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93451,6 +93451,41 @@
         <v>8500</v>
       </c>
     </row>
+    <row r="2656">
+      <c r="A2656" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2656" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2656" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2656" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2656" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2656" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2656" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2656" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2656" t="n">
+        <v>22100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2656"/>
+  <dimension ref="A1:I2657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93486,6 +93486,41 @@
         <v>22100</v>
       </c>
     </row>
+    <row r="2657">
+      <c r="A2657" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2657" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2657" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2657" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2657" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2657" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2657" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2657" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2657" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2657"/>
+  <dimension ref="A1:I2658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93521,6 +93521,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="2658">
+      <c r="A2658" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2658" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2658" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2658" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2658" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2658" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2658" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2658" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2658" t="n">
+        <v>27200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2658"/>
+  <dimension ref="A1:I2659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93556,6 +93556,43 @@
         <v>27200</v>
       </c>
     </row>
+    <row r="2659">
+      <c r="A2659" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2659" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2659" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2659" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2659" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2659" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2659" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2659" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2659" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2659"/>
+  <dimension ref="A1:I2660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93593,6 +93593,41 @@
         </is>
       </c>
     </row>
+    <row r="2660">
+      <c r="A2660" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2660" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2660" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2660" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2660" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2660" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2660" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2660" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I2660" t="n">
+        <v>36900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2660"/>
+  <dimension ref="A1:I2662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93628,6 +93628,76 @@
         <v>36900</v>
       </c>
     </row>
+    <row r="2661">
+      <c r="A2661" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2661" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2661" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2661" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2661" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2661" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G2661" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2661" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2661" t="n">
+        <v>82900</v>
+      </c>
+    </row>
+    <row r="2662">
+      <c r="A2662" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2662" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2662" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2662" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2662" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2662" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2662" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2662" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2662" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2662"/>
+  <dimension ref="A1:I2663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93698,6 +93698,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2663">
+      <c r="A2663" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2663" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2663" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2663" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2663" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2663" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2663" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H2663" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2663" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2663"/>
+  <dimension ref="A1:I2666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93733,6 +93733,111 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2664">
+      <c r="A2664" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2664" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2664" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2664" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2664" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F2664" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G2664" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H2664" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I2664" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2665">
+      <c r="A2665" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2665" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2665" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2665" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2665" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2665" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G2665" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H2665" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I2665" t="n">
+        <v>222700</v>
+      </c>
+    </row>
+    <row r="2666">
+      <c r="A2666" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2666" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2666" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2666" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2666" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F2666" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G2666" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="H2666" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2666" t="n">
+        <v>1566100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2666"/>
+  <dimension ref="A1:I2667"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93838,6 +93838,41 @@
         <v>1566100</v>
       </c>
     </row>
+    <row r="2667">
+      <c r="A2667" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2667" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2667" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2667" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2667" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2667" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2667" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H2667" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2667" t="n">
+        <v>435100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2667"/>
+  <dimension ref="A1:I2668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93873,6 +93873,41 @@
         <v>435100</v>
       </c>
     </row>
+    <row r="2668">
+      <c r="A2668" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2668" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2668" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2668" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2668" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2668" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2668" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2668" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2668" t="n">
+        <v>60900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5107.xlsx
+++ b/data/5107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2668"/>
+  <dimension ref="A1:I2671"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93908,6 +93908,111 @@
         <v>60900</v>
       </c>
     </row>
+    <row r="2669">
+      <c r="A2669" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2669" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2669" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2669" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2669" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F2669" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2669" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2669" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2669" t="n">
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="2670">
+      <c r="A2670" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2670" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2670" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2670" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2670" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2670" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2670" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2670" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2670" t="n">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="2671">
+      <c r="A2671" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2671" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2671" t="inlineStr">
+        <is>
+          <t>5107</t>
+        </is>
+      </c>
+      <c r="D2671" t="inlineStr">
+        <is>
+          <t>IQGROUP</t>
+        </is>
+      </c>
+      <c r="E2671" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2671" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2671" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2671" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2671" t="n">
+        <v>27800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
